--- a/StructureDefinition-CARIN-BB-Patient.xlsx
+++ b/StructureDefinition-CARIN-BB-Patient.xlsx
@@ -3183,7 +3183,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>87</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>52</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>45</v>
@@ -6695,7 +6695,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>245</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>44</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>45</v>
@@ -7282,7 +7282,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
         <v>270</v>
       </c>
@@ -7298,7 +7298,7 @@
         <v>52</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>45</v>
@@ -9043,7 +9043,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
         <v>245</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>44</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>45</v>
@@ -9630,7 +9630,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>270</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>52</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>45</v>
@@ -11391,7 +11391,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
         <v>245</v>
       </c>
@@ -11407,7 +11407,7 @@
         <v>44</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>45</v>
@@ -11978,7 +11978,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>270</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>52</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>45</v>
@@ -13739,7 +13739,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
         <v>245</v>
       </c>
@@ -13755,7 +13755,7 @@
         <v>44</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>45</v>
@@ -14326,7 +14326,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
         <v>270</v>
       </c>
@@ -14342,7 +14342,7 @@
         <v>52</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>45</v>

--- a/StructureDefinition-CARIN-BB-Patient.xlsx
+++ b/StructureDefinition-CARIN-BB-Patient.xlsx
@@ -1713,8 +1713,8 @@
   </si>
   <si>
     <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
-  &lt;start value="2010-03-22T13:00:00+00:00"/&gt;
-  &lt;end value="2010-06-30T14:00:00+00:00"/&gt;
+  &lt;start value="2010-03-23T00:00:00+11:00"/&gt;
+  &lt;end value="2010-07-01T00:00:00+10:00"/&gt;
 &lt;/valuePeriod&gt;</t>
   </si>
   <si>

--- a/StructureDefinition-CARIN-BB-Patient.xlsx
+++ b/StructureDefinition-CARIN-BB-Patient.xlsx
@@ -662,7 +662,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/IdentifierTypeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PatientIdentifierTypeVS</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -874,7 +874,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>MB</t>
+    <t>mb</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -965,7 +965,7 @@
     <t>Medical Record Number</t>
   </si>
   <si>
-    <t>MR</t>
+    <t>mr</t>
   </si>
   <si>
     <t>uniquememberid</t>
@@ -974,7 +974,7 @@
     <t>Unique Member ID</t>
   </si>
   <si>
-    <t>UM</t>
+    <t>um</t>
   </si>
   <si>
     <t>patacctnum</t>
@@ -983,7 +983,7 @@
     <t>Patient Account Number</t>
   </si>
   <si>
-    <t>PT</t>
+    <t>pt</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -2343,7 +2343,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="52.30078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="58.765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="23.64453125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-CARIN-BB-Patient.xlsx
+++ b/StructureDefinition-CARIN-BB-Patient.xlsx
@@ -588,11 +588,11 @@
     <t>Patients are almost always assigned specific numerical identifiers.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:type.coding.code}
+    <t xml:space="preserve">pattern:$this}
 </t>
   </si>
   <si>
-    <t>Slice based on  pattern</t>
+    <t>Slice based on $this pattern</t>
   </si>
   <si>
     <t>id</t>
@@ -2345,7 +2345,7 @@
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="58.765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="23.64453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-CARIN-BB-Patient.xlsx
+++ b/StructureDefinition-CARIN-BB-Patient.xlsx
@@ -662,7 +662,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PatientIdentifierTypeVS</t>
+    <t>http://hl7.org/fhir/us/carin-bb/ValueSet/PatientIdentifierType</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -2254,7 +2254,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="58.765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="56.34765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-CARIN-BB-Patient.xlsx
+++ b/StructureDefinition-CARIN-BB-Patient.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$145</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$147</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5385" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5462" uniqueCount="660">
   <si>
     <t>Path</t>
   </si>
@@ -931,7 +931,7 @@
 </t>
   </si>
   <si>
-    <t>A name associated with the patient</t>
+    <t>The name of the patient (130 )</t>
   </si>
   <si>
     <t>A name associated with the individual.</t>
@@ -1274,7 +1274,7 @@
     <t>Patient.gender</t>
   </si>
   <si>
-    <t>male | female | other | unknown</t>
+    <t>Gender of the member (71 )</t>
   </si>
   <si>
     <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
@@ -1302,7 +1302,7 @@
 </t>
   </si>
   <si>
-    <t>The date of birth for the individual</t>
+    <t>Date of birth of the member (70 )</t>
   </si>
   <si>
     <t>The date of birth for the individual.</t>
@@ -1329,8 +1329,8 @@
     <t>Patient.deceased[x]</t>
   </si>
   <si>
-    <t>boolean
-dateTime</t>
+    <t>dateTime
+boolean</t>
   </si>
   <si>
     <t>Indicates if the individual is deceased or not</t>
@@ -1345,10 +1345,33 @@
     <t>The fact that a patient is deceased influences the clinical process. Also, in human communication and relation management it is necessary to know whether the person is alive.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedInd, player[classCode=PSN|ANM and determinerCode=INSTANCE]/deceasedTime</t>
   </si>
   <si>
     <t>PID-30  (bool) and PID-29 (datetime)</t>
+  </si>
+  <si>
+    <t>deceasedDateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date of death of the member (124 )</t>
+  </si>
+  <si>
+    <t>deceasedBoolean</t>
+  </si>
+  <si>
+    <t>Indicates if the patient is deceased (150 )</t>
   </si>
   <si>
     <t>Patient.address</t>
@@ -1358,7 +1381,7 @@
 </t>
   </si>
   <si>
-    <t>An address for the individual</t>
+    <t>This represents the member's 5 digit zip code (131 )</t>
   </si>
   <si>
     <t>An address for the individual.</t>
@@ -1834,6 +1857,9 @@
   </si>
   <si>
     <t>Patient.contact.gender</t>
+  </si>
+  <si>
+    <t>male | female | other | unknown</t>
   </si>
   <si>
     <t>Administrative Gender - the gender that the contact person is considered to have for administration and record keeping purposes.</t>
@@ -2221,7 +2247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO145"/>
+  <dimension ref="A1:AO147"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2231,7 +2257,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="39.46875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.74609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -14428,16 +14454,14 @@
         <v>45</v>
       </c>
       <c r="AA104" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="AB104" s="2"/>
       <c r="AC104" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD104" t="s" s="2">
-        <v>45</v>
+        <v>418</v>
       </c>
       <c r="AE104" t="s" s="2">
         <v>411</v>
@@ -14458,7 +14482,7 @@
         <v>45</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>69</v>
@@ -14467,7 +14491,7 @@
         <v>45</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>45</v>
@@ -14475,9 +14499,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="B105" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="C105" t="s" s="2">
         <v>45</v>
       </c>
@@ -14486,31 +14512,31 @@
         <v>43</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>53</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>45</v>
@@ -14559,13 +14585,13 @@
         <v>45</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>45</v>
@@ -14574,29 +14600,31 @@
         <v>64</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>401</v>
+        <v>45</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>426</v>
+        <v>69</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="B106" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="C106" t="s" s="2">
         <v>45</v>
       </c>
@@ -14608,25 +14636,29 @@
         <v>52</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>66</v>
+        <v>425</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
+        <v>414</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>45</v>
       </c>
@@ -14674,7 +14706,7 @@
         <v>45</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>68</v>
+        <v>411</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>43</v>
@@ -14686,34 +14718,34 @@
         <v>45</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK106" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL106" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="AL106" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AM106" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>45</v>
+        <v>420</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -14723,27 +14755,29 @@
         <v>44</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>72</v>
+        <v>427</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>73</v>
+        <v>428</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>74</v>
+        <v>429</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="O107" t="s" s="2">
         <v>45</v>
       </c>
@@ -14779,19 +14813,19 @@
         <v>45</v>
       </c>
       <c r="AA107" t="s" s="2">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="AB107" t="s" s="2">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="AC107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD107" t="s" s="2">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>79</v>
+        <v>426</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>43</v>
@@ -14803,22 +14837,22 @@
         <v>45</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>45</v>
+        <v>401</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>69</v>
+        <v>432</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="AM107" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>45</v>
+        <v>434</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>45</v>
@@ -14826,7 +14860,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14843,26 +14877,22 @@
         <v>45</v>
       </c>
       <c r="H108" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>431</v>
+        <v>66</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>45</v>
       </c>
@@ -14874,7 +14904,7 @@
         <v>45</v>
       </c>
       <c r="S108" t="s" s="2">
-        <v>435</v>
+        <v>45</v>
       </c>
       <c r="T108" t="s" s="2">
         <v>45</v>
@@ -14886,13 +14916,13 @@
         <v>45</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>436</v>
+        <v>45</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>437</v>
+        <v>45</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>45</v>
@@ -14910,7 +14940,7 @@
         <v>45</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>438</v>
+        <v>68</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>43</v>
@@ -14922,13 +14952,13 @@
         <v>45</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="AJ108" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>300</v>
+        <v>69</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>45</v>
@@ -14937,7 +14967,7 @@
         <v>45</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>439</v>
+        <v>45</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>45</v>
@@ -14945,18 +14975,18 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>45</v>
@@ -14965,19 +14995,19 @@
         <v>45</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>441</v>
+        <v>73</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>442</v>
+        <v>74</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>443</v>
+        <v>75</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -14991,7 +15021,7 @@
         <v>45</v>
       </c>
       <c r="S109" t="s" s="2">
-        <v>444</v>
+        <v>45</v>
       </c>
       <c r="T109" t="s" s="2">
         <v>45</v>
@@ -15003,49 +15033,49 @@
         <v>45</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>445</v>
+        <v>45</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>446</v>
+        <v>45</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="AC109" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>447</v>
+        <v>79</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ109" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>300</v>
+        <v>69</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>45</v>
@@ -15054,7 +15084,7 @@
         <v>45</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>448</v>
+        <v>45</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>45</v>
@@ -15062,7 +15092,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -15079,25 +15109,25 @@
         <v>45</v>
       </c>
       <c r="H110" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I110" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>306</v>
+        <v>441</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>45</v>
@@ -15110,7 +15140,7 @@
         <v>45</v>
       </c>
       <c r="S110" t="s" s="2">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="T110" t="s" s="2">
         <v>45</v>
@@ -15122,13 +15152,13 @@
         <v>45</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>45</v>
+        <v>443</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>45</v>
+        <v>444</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>45</v>
@@ -15146,7 +15176,7 @@
         <v>45</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>43</v>
@@ -15164,7 +15194,7 @@
         <v>45</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>45</v>
@@ -15173,15 +15203,15 @@
         <v>45</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15192,10 +15222,10 @@
         <v>43</v>
       </c>
       <c r="F111" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G111" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H111" t="s" s="2">
         <v>45</v>
@@ -15204,15 +15234,17 @@
         <v>53</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M111" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>45</v>
@@ -15225,7 +15257,7 @@
         <v>45</v>
       </c>
       <c r="S111" t="s" s="2">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="T111" t="s" s="2">
         <v>45</v>
@@ -15237,13 +15269,13 @@
         <v>45</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="X111" t="s" s="2">
-        <v>45</v>
+        <v>452</v>
       </c>
       <c r="Y111" t="s" s="2">
-        <v>45</v>
+        <v>453</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>45</v>
@@ -15261,13 +15293,13 @@
         <v>45</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>45</v>
@@ -15276,10 +15308,10 @@
         <v>64</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>461</v>
+        <v>300</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>45</v>
@@ -15288,19 +15320,19 @@
         <v>45</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
-        <v>464</v>
+        <v>45</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -15310,7 +15342,7 @@
         <v>52</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>45</v>
@@ -15322,13 +15354,17 @@
         <v>54</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="M112" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="N112" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O112" t="s" s="2">
         <v>45</v>
       </c>
@@ -15340,7 +15376,7 @@
         <v>45</v>
       </c>
       <c r="S112" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="T112" t="s" s="2">
         <v>45</v>
@@ -15376,7 +15412,7 @@
         <v>45</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>43</v>
@@ -15391,10 +15427,10 @@
         <v>64</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>469</v>
+        <v>308</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>45</v>
@@ -15403,29 +15439,29 @@
         <v>45</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="113" hidden="true">
+    <row r="113">
       <c r="A113" t="s" s="2">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>472</v>
+        <v>45</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G113" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H113" t="s" s="2">
         <v>45</v>
@@ -15437,14 +15473,12 @@
         <v>54</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="M113" s="2"/>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>45</v>
@@ -15457,7 +15491,7 @@
         <v>45</v>
       </c>
       <c r="S113" t="s" s="2">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="T113" t="s" s="2">
         <v>45</v>
@@ -15493,13 +15527,13 @@
         <v>45</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>45</v>
@@ -15508,10 +15542,10 @@
         <v>64</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="AL113" t="s" s="2">
         <v>45</v>
@@ -15520,7 +15554,7 @@
         <v>45</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>45</v>
@@ -15528,11 +15562,11 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -15554,10 +15588,10 @@
         <v>54</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="M114" s="2"/>
       <c r="N114" s="2"/>
@@ -15572,7 +15606,7 @@
         <v>45</v>
       </c>
       <c r="S114" t="s" s="2">
-        <v>45</v>
+        <v>474</v>
       </c>
       <c r="T114" t="s" s="2">
         <v>45</v>
@@ -15584,13 +15618,13 @@
         <v>45</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>484</v>
+        <v>45</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>485</v>
+        <v>45</v>
       </c>
       <c r="Z114" t="s" s="2">
         <v>45</v>
@@ -15608,7 +15642,7 @@
         <v>45</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>43</v>
@@ -15626,7 +15660,7 @@
         <v>352</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>45</v>
@@ -15635,19 +15669,19 @@
         <v>45</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
@@ -15657,7 +15691,7 @@
         <v>52</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>45</v>
@@ -15669,12 +15703,14 @@
         <v>54</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="M115" s="2"/>
+        <v>481</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>482</v>
+      </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
         <v>45</v>
@@ -15687,7 +15723,7 @@
         <v>45</v>
       </c>
       <c r="S115" t="s" s="2">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="T115" t="s" s="2">
         <v>45</v>
@@ -15723,7 +15759,7 @@
         <v>45</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>43</v>
@@ -15738,10 +15774,10 @@
         <v>64</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>352</v>
+        <v>45</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>45</v>
@@ -15750,19 +15786,19 @@
         <v>45</v>
       </c>
       <c r="AN115" t="s" s="2">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="AO115" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>45</v>
+        <v>488</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -15772,7 +15808,7 @@
         <v>52</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>45</v>
@@ -15784,14 +15820,12 @@
         <v>54</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="M116" s="2"/>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
         <v>45</v>
@@ -15816,13 +15850,13 @@
         <v>45</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="X116" t="s" s="2">
-        <v>45</v>
+        <v>491</v>
       </c>
       <c r="Y116" t="s" s="2">
-        <v>45</v>
+        <v>492</v>
       </c>
       <c r="Z116" t="s" s="2">
         <v>45</v>
@@ -15840,7 +15874,7 @@
         <v>45</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>43</v>
@@ -15855,10 +15889,10 @@
         <v>64</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>45</v>
@@ -15867,7 +15901,7 @@
         <v>45</v>
       </c>
       <c r="AN116" t="s" s="2">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="AO116" t="s" s="2">
         <v>45</v>
@@ -15875,11 +15909,11 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>45</v>
+        <v>497</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -15898,18 +15932,16 @@
         <v>53</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>225</v>
+        <v>54</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="M117" s="2"/>
-      <c r="N117" t="s" s="2">
-        <v>507</v>
-      </c>
+      <c r="N117" s="2"/>
       <c r="O117" t="s" s="2">
         <v>45</v>
       </c>
@@ -15921,7 +15953,7 @@
         <v>45</v>
       </c>
       <c r="S117" t="s" s="2">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="T117" t="s" s="2">
         <v>45</v>
@@ -15957,7 +15989,7 @@
         <v>45</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>43</v>
@@ -15975,7 +16007,7 @@
         <v>352</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>344</v>
+        <v>502</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>45</v>
@@ -15984,7 +16016,7 @@
         <v>45</v>
       </c>
       <c r="AN117" t="s" s="2">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="AO117" t="s" s="2">
         <v>45</v>
@@ -15992,7 +16024,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -16012,21 +16044,21 @@
         <v>45</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>199</v>
+        <v>54</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" t="s" s="2">
-        <v>514</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
         <v>45</v>
       </c>
@@ -16050,13 +16082,13 @@
         <v>45</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>515</v>
+        <v>45</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>516</v>
+        <v>45</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>45</v>
@@ -16074,7 +16106,7 @@
         <v>45</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>43</v>
@@ -16092,24 +16124,24 @@
         <v>45</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>518</v>
+        <v>45</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -16123,28 +16155,26 @@
         <v>52</v>
       </c>
       <c r="G119" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H119" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>521</v>
+        <v>225</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="M119" s="2"/>
       <c r="N119" t="s" s="2">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>45</v>
@@ -16157,7 +16187,7 @@
         <v>45</v>
       </c>
       <c r="S119" t="s" s="2">
-        <v>45</v>
+        <v>515</v>
       </c>
       <c r="T119" t="s" s="2">
         <v>45</v>
@@ -16193,7 +16223,7 @@
         <v>45</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>43</v>
@@ -16208,19 +16238,19 @@
         <v>64</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>526</v>
+        <v>344</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="AO119" t="s" s="2">
         <v>45</v>
@@ -16228,7 +16258,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16239,7 +16269,7 @@
         <v>43</v>
       </c>
       <c r="F120" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G120" t="s" s="2">
         <v>45</v>
@@ -16251,19 +16281,17 @@
         <v>45</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>529</v>
+        <v>199</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>532</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="M120" s="2"/>
       <c r="N120" t="s" s="2">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>45</v>
@@ -16288,13 +16316,13 @@
         <v>45</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>45</v>
+        <v>522</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>45</v>
+        <v>523</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>45</v>
@@ -16312,13 +16340,13 @@
         <v>45</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>45</v>
@@ -16330,16 +16358,16 @@
         <v>45</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>69</v>
+        <v>525</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN120" t="s" s="2">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="AO120" t="s" s="2">
         <v>45</v>
@@ -16347,7 +16375,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16358,7 +16386,7 @@
         <v>43</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>45</v>
@@ -16370,19 +16398,19 @@
         <v>45</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>45</v>
@@ -16431,25 +16459,25 @@
         <v>45</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>542</v>
+        <v>64</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>69</v>
@@ -16458,7 +16486,7 @@
         <v>45</v>
       </c>
       <c r="AN121" t="s" s="2">
-        <v>45</v>
+        <v>534</v>
       </c>
       <c r="AO121" t="s" s="2">
         <v>45</v>
@@ -16466,7 +16494,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -16477,7 +16505,7 @@
         <v>43</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>45</v>
@@ -16489,16 +16517,20 @@
         <v>45</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>54</v>
+        <v>536</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>66</v>
+        <v>537</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
+        <v>538</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>540</v>
+      </c>
       <c r="O122" t="s" s="2">
         <v>45</v>
       </c>
@@ -16546,34 +16578,34 @@
         <v>45</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>68</v>
+        <v>535</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK122" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AL122" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="AL122" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AM122" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN122" t="s" s="2">
-        <v>45</v>
+        <v>542</v>
       </c>
       <c r="AO122" t="s" s="2">
         <v>45</v>
@@ -16581,11 +16613,11 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -16604,18 +16636,20 @@
         <v>45</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>72</v>
+        <v>544</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>73</v>
+        <v>545</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>74</v>
+        <v>546</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N123" s="2"/>
+        <v>547</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="O123" t="s" s="2">
         <v>45</v>
       </c>
@@ -16663,7 +16697,7 @@
         <v>45</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>79</v>
+        <v>543</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>43</v>
@@ -16675,16 +16709,16 @@
         <v>45</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>80</v>
+        <v>549</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK123" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL123" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="AL123" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>45</v>
@@ -16698,43 +16732,39 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
-        <v>547</v>
+        <v>45</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>548</v>
+        <v>66</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N124" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
         <v>45</v>
       </c>
@@ -16782,25 +16812,25 @@
         <v>45</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>550</v>
+        <v>68</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>45</v>
@@ -16817,11 +16847,11 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -16840,18 +16870,18 @@
         <v>45</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>552</v>
+        <v>73</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>553</v>
-      </c>
-      <c r="M125" s="2"/>
-      <c r="N125" t="s" s="2">
-        <v>554</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
         <v>45</v>
       </c>
@@ -16875,13 +16905,13 @@
         <v>45</v>
       </c>
       <c r="W125" t="s" s="2">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="X125" t="s" s="2">
-        <v>555</v>
+        <v>45</v>
       </c>
       <c r="Y125" t="s" s="2">
-        <v>556</v>
+        <v>45</v>
       </c>
       <c r="Z125" t="s" s="2">
         <v>45</v>
@@ -16899,7 +16929,7 @@
         <v>45</v>
       </c>
       <c r="AE125" t="s" s="2">
-        <v>551</v>
+        <v>79</v>
       </c>
       <c r="AF125" t="s" s="2">
         <v>43</v>
@@ -16911,22 +16941,22 @@
         <v>45</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>557</v>
+        <v>69</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN125" t="s" s="2">
-        <v>558</v>
+        <v>45</v>
       </c>
       <c r="AO125" t="s" s="2">
         <v>45</v>
@@ -16934,40 +16964,42 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
-        <v>45</v>
+        <v>554</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H126" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>281</v>
+        <v>72</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="M126" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="N126" t="s" s="2">
-        <v>562</v>
+        <v>173</v>
       </c>
       <c r="O126" t="s" s="2">
         <v>45</v>
@@ -17016,34 +17048,34 @@
         <v>45</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI126" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ126" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>287</v>
+        <v>151</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN126" t="s" s="2">
-        <v>563</v>
+        <v>45</v>
       </c>
       <c r="AO126" t="s" s="2">
         <v>45</v>
@@ -17051,7 +17083,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -17074,19 +17106,17 @@
         <v>45</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>347</v>
+        <v>199</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>567</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="M127" s="2"/>
       <c r="N127" t="s" s="2">
-        <v>351</v>
+        <v>561</v>
       </c>
       <c r="O127" t="s" s="2">
         <v>45</v>
@@ -17111,13 +17141,13 @@
         <v>45</v>
       </c>
       <c r="W127" t="s" s="2">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="X127" t="s" s="2">
-        <v>45</v>
+        <v>562</v>
       </c>
       <c r="Y127" t="s" s="2">
-        <v>45</v>
+        <v>563</v>
       </c>
       <c r="Z127" t="s" s="2">
         <v>45</v>
@@ -17135,7 +17165,7 @@
         <v>45</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>43</v>
@@ -17153,7 +17183,7 @@
         <v>45</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>353</v>
+        <v>564</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>69</v>
@@ -17162,7 +17192,7 @@
         <v>45</v>
       </c>
       <c r="AN127" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AO127" t="s" s="2">
         <v>45</v>
@@ -17170,7 +17200,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -17193,17 +17223,17 @@
         <v>45</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>420</v>
+        <v>281</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="M128" s="2"/>
       <c r="N128" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="O128" t="s" s="2">
         <v>45</v>
@@ -17252,7 +17282,7 @@
         <v>45</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>43</v>
@@ -17270,7 +17300,7 @@
         <v>45</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>425</v>
+        <v>287</v>
       </c>
       <c r="AL128" t="s" s="2">
         <v>69</v>
@@ -17279,7 +17309,7 @@
         <v>45</v>
       </c>
       <c r="AN128" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AO128" t="s" s="2">
         <v>45</v>
@@ -17287,7 +17317,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17298,7 +17328,7 @@
         <v>43</v>
       </c>
       <c r="F129" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G129" t="s" s="2">
         <v>45</v>
@@ -17310,17 +17340,19 @@
         <v>45</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>128</v>
+        <v>347</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>394</v>
+        <v>572</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M129" s="2"/>
+        <v>573</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>574</v>
+      </c>
       <c r="N129" t="s" s="2">
-        <v>576</v>
+        <v>351</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>45</v>
@@ -17345,13 +17377,13 @@
         <v>45</v>
       </c>
       <c r="W129" t="s" s="2">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>577</v>
+        <v>45</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>578</v>
+        <v>45</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>45</v>
@@ -17369,13 +17401,13 @@
         <v>45</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG129" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH129" t="s" s="2">
         <v>45</v>
@@ -17387,7 +17419,7 @@
         <v>45</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>169</v>
+        <v>353</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>69</v>
@@ -17396,7 +17428,7 @@
         <v>45</v>
       </c>
       <c r="AN129" t="s" s="2">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="AO129" t="s" s="2">
         <v>45</v>
@@ -17404,7 +17436,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17427,17 +17459,17 @@
         <v>45</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>232</v>
+        <v>427</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="M130" s="2"/>
       <c r="N130" t="s" s="2">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="O130" t="s" s="2">
         <v>45</v>
@@ -17486,7 +17518,7 @@
         <v>45</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>43</v>
@@ -17495,7 +17527,7 @@
         <v>52</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>584</v>
+        <v>45</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>64</v>
@@ -17504,7 +17536,7 @@
         <v>45</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>585</v>
+        <v>432</v>
       </c>
       <c r="AL130" t="s" s="2">
         <v>69</v>
@@ -17513,7 +17545,7 @@
         <v>45</v>
       </c>
       <c r="AN130" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="AO130" t="s" s="2">
         <v>45</v>
@@ -17521,7 +17553,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B131" s="2"/>
       <c r="C131" t="s" s="2">
@@ -17544,16 +17576,18 @@
         <v>45</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
+      <c r="N131" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="O131" t="s" s="2">
         <v>45</v>
       </c>
@@ -17577,13 +17611,13 @@
         <v>45</v>
       </c>
       <c r="W131" t="s" s="2">
-        <v>45</v>
+        <v>193</v>
       </c>
       <c r="X131" t="s" s="2">
-        <v>45</v>
+        <v>585</v>
       </c>
       <c r="Y131" t="s" s="2">
-        <v>45</v>
+        <v>586</v>
       </c>
       <c r="Z131" t="s" s="2">
         <v>45</v>
@@ -17601,7 +17635,7 @@
         <v>45</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>43</v>
@@ -17619,7 +17653,7 @@
         <v>45</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>590</v>
+        <v>169</v>
       </c>
       <c r="AL131" t="s" s="2">
         <v>69</v>
@@ -17628,15 +17662,15 @@
         <v>45</v>
       </c>
       <c r="AN131" t="s" s="2">
-        <v>45</v>
+        <v>587</v>
       </c>
       <c r="AO131" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17647,10 +17681,10 @@
         <v>43</v>
       </c>
       <c r="F132" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G132" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H132" t="s" s="2">
         <v>45</v>
@@ -17659,19 +17693,17 @@
         <v>45</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>537</v>
+        <v>232</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="M132" t="s" s="2">
-        <v>594</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="M132" s="2"/>
       <c r="N132" t="s" s="2">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="O132" t="s" s="2">
         <v>45</v>
@@ -17720,34 +17752,34 @@
         <v>45</v>
       </c>
       <c r="AE132" t="s" s="2">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="AF132" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH132" t="s" s="2">
-        <v>45</v>
+        <v>592</v>
       </c>
       <c r="AI132" t="s" s="2">
         <v>64</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>591</v>
+        <v>45</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>597</v>
+        <v>69</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN132" t="s" s="2">
-        <v>45</v>
+        <v>594</v>
       </c>
       <c r="AO132" t="s" s="2">
         <v>45</v>
@@ -17755,7 +17787,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17778,13 +17810,13 @@
         <v>45</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>66</v>
+        <v>596</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>67</v>
+        <v>597</v>
       </c>
       <c r="M133" s="2"/>
       <c r="N133" s="2"/>
@@ -17835,7 +17867,7 @@
         <v>45</v>
       </c>
       <c r="AE133" t="s" s="2">
-        <v>68</v>
+        <v>595</v>
       </c>
       <c r="AF133" t="s" s="2">
         <v>43</v>
@@ -17847,17 +17879,17 @@
         <v>45</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK133" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AL133" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="AL133" t="s" s="2">
-        <v>45</v>
-      </c>
       <c r="AM133" t="s" s="2">
         <v>45</v>
       </c>
@@ -17868,13 +17900,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
         <v>599</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -17884,7 +17916,7 @@
         <v>44</v>
       </c>
       <c r="G134" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H134" t="s" s="2">
         <v>45</v>
@@ -17893,18 +17925,20 @@
         <v>45</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>72</v>
+        <v>544</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>73</v>
+        <v>600</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>74</v>
+        <v>601</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N134" s="2"/>
+        <v>602</v>
+      </c>
+      <c r="N134" t="s" s="2">
+        <v>603</v>
+      </c>
       <c r="O134" t="s" s="2">
         <v>45</v>
       </c>
@@ -17952,7 +17986,7 @@
         <v>45</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>79</v>
+        <v>599</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>43</v>
@@ -17964,16 +17998,16 @@
         <v>45</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ134" t="s" s="2">
-        <v>45</v>
+        <v>599</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>69</v>
+        <v>604</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>45</v>
+        <v>605</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>45</v>
@@ -17987,43 +18021,39 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>547</v>
+        <v>45</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F135" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G135" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H135" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>548</v>
+        <v>66</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
       <c r="O135" t="s" s="2">
         <v>45</v>
       </c>
@@ -18071,25 +18101,25 @@
         <v>45</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>550</v>
+        <v>68</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="AL135" t="s" s="2">
         <v>45</v>
@@ -18104,23 +18134,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G136" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H136" t="s" s="2">
         <v>45</v>
@@ -18129,20 +18159,18 @@
         <v>45</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>602</v>
+        <v>73</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>603</v>
+        <v>74</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>605</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
         <v>45</v>
       </c>
@@ -18166,11 +18194,13 @@
         <v>45</v>
       </c>
       <c r="W136" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X136" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y136" t="s" s="2">
-        <v>606</v>
+        <v>45</v>
       </c>
       <c r="Z136" t="s" s="2">
         <v>45</v>
@@ -18188,34 +18218,34 @@
         <v>45</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>601</v>
+        <v>79</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI136" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ136" t="s" s="2">
-        <v>601</v>
+        <v>45</v>
       </c>
       <c r="AK136" t="s" s="2">
-        <v>607</v>
+        <v>69</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>608</v>
+        <v>45</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN136" t="s" s="2">
-        <v>609</v>
+        <v>45</v>
       </c>
       <c r="AO136" t="s" s="2">
         <v>45</v>
@@ -18223,42 +18253,42 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>45</v>
+        <v>554</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F137" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G137" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H137" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>272</v>
+        <v>72</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>611</v>
+        <v>555</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>612</v>
+        <v>556</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>613</v>
+        <v>75</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>614</v>
+        <v>173</v>
       </c>
       <c r="O137" t="s" s="2">
         <v>45</v>
@@ -18307,56 +18337,56 @@
         <v>45</v>
       </c>
       <c r="AE137" t="s" s="2">
-        <v>610</v>
+        <v>557</v>
       </c>
       <c r="AF137" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK137" t="s" s="2">
-        <v>615</v>
+        <v>151</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>616</v>
+        <v>45</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN137" t="s" s="2">
-        <v>617</v>
+        <v>45</v>
       </c>
       <c r="AO137" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="138" hidden="true">
+    <row r="138">
       <c r="A138" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
-        <v>619</v>
+        <v>45</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F138" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G138" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H138" t="s" s="2">
         <v>45</v>
@@ -18365,18 +18395,20 @@
         <v>45</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>620</v>
+        <v>199</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N138" s="2"/>
+        <v>612</v>
+      </c>
+      <c r="N138" t="s" s="2">
+        <v>613</v>
+      </c>
       <c r="O138" t="s" s="2">
         <v>45</v>
       </c>
@@ -18400,13 +18432,11 @@
         <v>45</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X138" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X138" s="2"/>
       <c r="Y138" t="s" s="2">
-        <v>45</v>
+        <v>614</v>
       </c>
       <c r="Z138" t="s" s="2">
         <v>45</v>
@@ -18424,13 +18454,13 @@
         <v>45</v>
       </c>
       <c r="AE138" t="s" s="2">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>45</v>
@@ -18439,19 +18469,19 @@
         <v>64</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>45</v>
+        <v>609</v>
       </c>
       <c r="AK138" t="s" s="2">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>69</v>
+        <v>616</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN138" t="s" s="2">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="AO138" t="s" s="2">
         <v>45</v>
@@ -18459,7 +18489,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18479,22 +18509,22 @@
         <v>45</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="N139" t="s" s="2">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>45</v>
@@ -18543,7 +18573,7 @@
         <v>45</v>
       </c>
       <c r="AE139" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="AF139" t="s" s="2">
         <v>43</v>
@@ -18561,16 +18591,16 @@
         <v>45</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>585</v>
+        <v>623</v>
       </c>
       <c r="AL139" t="s" s="2">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="AM139" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN139" t="s" s="2">
-        <v>45</v>
+        <v>625</v>
       </c>
       <c r="AO139" t="s" s="2">
         <v>45</v>
@@ -18578,11 +18608,11 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
-        <v>45</v>
+        <v>627</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -18595,26 +18625,24 @@
         <v>45</v>
       </c>
       <c r="H140" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J140" t="s" s="2">
-        <v>537</v>
+        <v>628</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>635</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>636</v>
-      </c>
+        <v>631</v>
+      </c>
+      <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
         <v>45</v>
       </c>
@@ -18662,7 +18690,7 @@
         <v>45</v>
       </c>
       <c r="AE140" t="s" s="2">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="AF140" t="s" s="2">
         <v>43</v>
@@ -18680,7 +18708,7 @@
         <v>45</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="AL140" t="s" s="2">
         <v>69</v>
@@ -18689,7 +18717,7 @@
         <v>45</v>
       </c>
       <c r="AN140" t="s" s="2">
-        <v>45</v>
+        <v>633</v>
       </c>
       <c r="AO140" t="s" s="2">
         <v>45</v>
@@ -18697,7 +18725,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18717,19 +18745,23 @@
         <v>45</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J141" t="s" s="2">
-        <v>54</v>
+        <v>232</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>66</v>
+        <v>635</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
+        <v>636</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="N141" t="s" s="2">
+        <v>638</v>
+      </c>
       <c r="O141" t="s" s="2">
         <v>45</v>
       </c>
@@ -18777,7 +18809,7 @@
         <v>45</v>
       </c>
       <c r="AE141" t="s" s="2">
-        <v>68</v>
+        <v>634</v>
       </c>
       <c r="AF141" t="s" s="2">
         <v>43</v>
@@ -18789,16 +18821,16 @@
         <v>45</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK141" t="s" s="2">
-        <v>69</v>
+        <v>593</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>45</v>
+        <v>639</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>45</v>
@@ -18812,11 +18844,11 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -18829,24 +18861,26 @@
         <v>45</v>
       </c>
       <c r="H142" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="J142" t="s" s="2">
-        <v>72</v>
+        <v>544</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>73</v>
+        <v>641</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>74</v>
+        <v>642</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N142" s="2"/>
+        <v>643</v>
+      </c>
+      <c r="N142" t="s" s="2">
+        <v>644</v>
+      </c>
       <c r="O142" t="s" s="2">
         <v>45</v>
       </c>
@@ -18894,7 +18928,7 @@
         <v>45</v>
       </c>
       <c r="AE142" t="s" s="2">
-        <v>79</v>
+        <v>640</v>
       </c>
       <c r="AF142" t="s" s="2">
         <v>43</v>
@@ -18906,16 +18940,16 @@
         <v>45</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK142" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AL142" t="s" s="2">
         <v>69</v>
-      </c>
-      <c r="AL142" t="s" s="2">
-        <v>45</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>45</v>
@@ -18929,43 +18963,39 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
-        <v>547</v>
+        <v>45</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F143" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="G143" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H143" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="I143" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J143" t="s" s="2">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>548</v>
+        <v>66</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>549</v>
-      </c>
-      <c r="M143" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N143" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
       <c r="O143" t="s" s="2">
         <v>45</v>
       </c>
@@ -19013,25 +19043,25 @@
         <v>45</v>
       </c>
       <c r="AE143" t="s" s="2">
-        <v>550</v>
+        <v>68</v>
       </c>
       <c r="AF143" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK143" t="s" s="2">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="AL143" t="s" s="2">
         <v>45</v>
@@ -19048,18 +19078,18 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F144" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G144" t="s" s="2">
         <v>45</v>
@@ -19068,19 +19098,19 @@
         <v>45</v>
       </c>
       <c r="I144" t="s" s="2">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="J144" t="s" s="2">
-        <v>642</v>
+        <v>72</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>643</v>
+        <v>73</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>644</v>
+        <v>74</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>645</v>
+        <v>75</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
@@ -19130,34 +19160,34 @@
         <v>45</v>
       </c>
       <c r="AE144" t="s" s="2">
-        <v>641</v>
+        <v>79</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>182</v>
+        <v>69</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="AM144" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AN144" t="s" s="2">
-        <v>646</v>
+        <v>45</v>
       </c>
       <c r="AO144" t="s" s="2">
         <v>45</v>
@@ -19165,39 +19195,43 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
-        <v>45</v>
+        <v>554</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H145" t="s" s="2">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I145" t="s" s="2">
         <v>53</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>648</v>
+        <v>555</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="O145" t="s" s="2">
         <v>45</v>
       </c>
@@ -19221,65 +19255,297 @@
         <v>45</v>
       </c>
       <c r="W145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO145" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="146" hidden="true">
+      <c r="A146" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B146" s="2"/>
+      <c r="C146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D146" s="2"/>
+      <c r="E146" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F146" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I146" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J146" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="K146" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L146" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="N146" s="2"/>
+      <c r="O146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P146" s="2"/>
+      <c r="Q146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AF146" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG146" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI146" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AJ146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK146" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL146" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="AM146" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN146" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="AO146" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="147" hidden="true">
+      <c r="A147" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="B147" s="2"/>
+      <c r="C147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F147" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I147" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J147" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K147" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="L147" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P147" s="2"/>
+      <c r="Q147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W147" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="X145" t="s" s="2">
-        <v>649</v>
-      </c>
-      <c r="Y145" t="s" s="2">
-        <v>650</v>
-      </c>
-      <c r="Z145" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA145" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB145" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC145" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD145" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE145" t="s" s="2">
-        <v>647</v>
-      </c>
-      <c r="AF145" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AG145" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH145" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI145" t="s" s="2">
+      <c r="X147" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="Y147" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="Z147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE147" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="AF147" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AG147" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI147" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="AJ145" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK145" t="s" s="2">
-        <v>651</v>
-      </c>
-      <c r="AL145" t="s" s="2">
+      <c r="AJ147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK147" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AL147" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="AM145" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AN145" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO145" t="s" s="2">
+      <c r="AM147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AN147" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO147" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO145">
+  <autoFilter ref="A1:AO147">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -19289,7 +19555,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI144">
+  <conditionalFormatting sqref="A2:AI146">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-CARIN-BB-Patient.xlsx
+++ b/StructureDefinition-CARIN-BB-Patient.xlsx
@@ -931,7 +931,7 @@
 </t>
   </si>
   <si>
-    <t>The name of the patient (130 )</t>
+    <t>The name of the patient (130)</t>
   </si>
   <si>
     <t>A name associated with the individual.</t>
@@ -1274,7 +1274,7 @@
     <t>Patient.gender</t>
   </si>
   <si>
-    <t>Gender of the member (71 )</t>
+    <t>Gender of the member (71)</t>
   </si>
   <si>
     <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
@@ -1302,7 +1302,7 @@
 </t>
   </si>
   <si>
-    <t>Date of birth of the member (70 )</t>
+    <t>Date of birth of the member (70)</t>
   </si>
   <si>
     <t>The date of birth for the individual.</t>
@@ -1365,13 +1365,13 @@
 </t>
   </si>
   <si>
-    <t>Date of death of the member (124 )</t>
+    <t>Date of death of the member (124)</t>
   </si>
   <si>
     <t>deceasedBoolean</t>
   </si>
   <si>
-    <t>Indicates if the patient is deceased (150 )</t>
+    <t>Indicates if the patient is deceased (150)</t>
   </si>
   <si>
     <t>Patient.address</t>
@@ -1381,7 +1381,7 @@
 </t>
   </si>
   <si>
-    <t>This represents the member's 5 digit zip code (131 )</t>
+    <t>This represents the member's 5 digit zip code (131)</t>
   </si>
   <si>
     <t>An address for the individual.</t>

--- a/StructureDefinition-CARIN-BB-Patient.xlsx
+++ b/StructureDefinition-CARIN-BB-Patient.xlsx
@@ -295,7 +295,7 @@
 </t>
   </si>
   <si>
-    <t>When the resource version last changed</t>
+    <t>Defines the date the member demographics were updated (163)</t>
   </si>
   <si>
     <t>When the resource last changed - e.g. when the version changed.</t>
@@ -854,8 +854,8 @@
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
   &lt;type&gt;
     &lt;coding&gt;
-      &lt;system value="http://hl7.org/fhir/us/carin-bb/CodeSystem/IdentifierTypeCS"/&gt;
-      &lt;code value="mr"/&gt;
+      &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0203"/&gt;
+      &lt;code value="MR"/&gt;
     &lt;/coding&gt;
   &lt;/type&gt;
 &lt;/valueIdentifier&gt;</t>
@@ -1274,7 +1274,7 @@
     <t>Patient.gender</t>
   </si>
   <si>
-    <t>Gender of the member (71)</t>
+    <t>Gender of the member (71,GNDR_CD)</t>
   </si>
   <si>
     <t>Administrative Gender - the gender that the patient is considered to have for administration and record keeping purposes.</t>
@@ -1302,7 +1302,7 @@
 </t>
   </si>
   <si>
-    <t>Date of birth of the member (70)</t>
+    <t>Date of birth of the member (70,DOB_DT)</t>
   </si>
   <si>
     <t>The date of birth for the individual.</t>
@@ -1381,7 +1381,7 @@
 </t>
   </si>
   <si>
-    <t>This represents the member's 5 digit zip code (131)</t>
+    <t>An address for the individual</t>
   </si>
   <si>
     <t>An address for the individual.</t>
